--- a/做事相关/具体问题相关/社会整体优化.xlsx
+++ b/做事相关/具体问题相关/社会整体优化.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>层次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>效率与公平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生活闭环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经济隐患</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粮食安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,12 +81,6 @@
   </si>
   <si>
     <t>琐事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济危机；
-人口老龄化；
-毒品走私问题；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人文因素（战争、恐怖主义、民族、难民移民、生化核等危险物品）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可能性威胁（转基因、人工智能）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,13 +122,6 @@
   </si>
   <si>
     <t>二层：生活与城市运转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三层：公共危机处理
-1.已经发生；
-2.正在发生；
-3.未来可能发生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -280,6 +255,23 @@
   </si>
   <si>
     <t>医疗（药品安全；过度医疗问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险性物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文因素（战争、恐怖主义、民族、难民移民）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率与公平，
+经济隐患</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如毒品、枪支、生化核等危险物品；及生活常见物品等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,81 +550,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,345 +930,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="39.88671875" customWidth="1"/>
     <col min="5" max="5" width="48.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="19" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="19" t="s">
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="19" t="s">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="2" t="s">
+    <row r="25" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="27"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
